--- a/Basededados/BELGIUM_S1.xlsx
+++ b/Basededados/BELGIUM_S1.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gols_casa_FT</t>
+          <t>FT_Goals_H</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Gols_Fora_FT</t>
+          <t>FT_Goals_A</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -551,17 +551,17 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>B365H</t>
+          <t>FT_Odds_H</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>B365D</t>
+          <t>FT_Odds_D</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>B365A</t>
+          <t>FT_Odds_A</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">

--- a/Basededados/BELGIUM_S1.xlsx
+++ b/Basededados/BELGIUM_S1.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Casa</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Fora</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
